--- a/m2/UnityProject/Assets/Scene/9000_Test/sc2/doc/Main2Control.xlsx
+++ b/m2/UnityProject/Assets/Scene/9000_Test/sc2/doc/Main2Control.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="40" r:id="rId43"/>
-    <sheet name="help" sheetId="39" r:id="rId42"/>
-    <sheet name="setting.ini" sheetId="38" r:id="rId41"/>
-    <sheet name="template-statefunc" sheetId="37" r:id="rId40"/>
-    <sheet name="template-source" sheetId="36" r:id="rId39"/>
-    <sheet name="config" sheetId="35" r:id="rId38"/>
+    <sheet name="itemsinfo" sheetId="46" r:id="rId49"/>
+    <sheet name="help" sheetId="45" r:id="rId48"/>
+    <sheet name="setting.ini" sheetId="44" r:id="rId47"/>
+    <sheet name="template-statefunc" sheetId="43" r:id="rId46"/>
+    <sheet name="template-source" sheetId="42" r:id="rId45"/>
+    <sheet name="config" sheetId="41" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -1074,6 +1074,123 @@
 state_width=140
 state_height=20
 comment_block_height=45
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>S_START_SMOKE</t>
+  </si>
+  <si>
+    <t>S_STOP_SMOKE</t>
+  </si>
+  <si>
+    <t>259,197</t>
+  </si>
+  <si>
+    <t>煙を開始</t>
+  </si>
+  <si>
+    <t>m_efsmoke.Kick(); //煙
+</t>
+  </si>
+  <si>
+    <t>/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>467,190</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>煙を停止</t>
+  </si>
+  <si>
+    <t>m_efsmoke.Stop(); //煙
+</t>
+  </si>
+  <si>
+    <t>390,378</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/03/24 22:33:24
+; * pssgEditor version : 0.23.40293.f0b9fd4248d354ec440680d9161406ae26d4945e
+psggfile=@@@
+Main2Control.psgg
+@@@
+xlsfile=@@@
+Main2Control.xlsx
+@@@
+guid=@@@
+aa5a9627-5716-45d9-85b1-a9f2b452d288
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":0,"y":0}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":769,"y":99}},{"Key":"S_CAM_T1","Value":{"x":918,"y":195}},{"Key":"S_WAIT","Value":{"x":678,"y":192}},{"Key":"S_SETUP_STAGE3","Value":{"x":1371,"y":852}},{"Key":"S_SETUP_STAGE2","Value":{"x":657,"y":545}},{"Key":"S_SETUP_STAGE1","Value":{"x":259,"y":197}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":955,"y":552}},{"Key":"S_LAUNCHSTART","Value":{"x":1189,"y":204}},{"Key":"S_DEBUG","Value":{"x":340,"y":549}},{"Key":"S_GAMEOVER","Value":{"x":1373,"y":665}},{"Key":"S_SETUP_STAGE4","Value":{"x":467,"y":190}},{"Key":"S_START_SMOKE","Value":{"x":467,"y":190}},{"Key":"S_START_SMOKE1","Value":{"x":390,"y":378}},{"Key":"S_STOP_SMOKE","Value":{"x":390,"y":378}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe" /Edit %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
 content_max_height=200
 comment_block_fixed=0
 line_space=-1
@@ -1625,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1661,6 +1778,12 @@
       <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
@@ -1703,6 +1826,12 @@
       <c r="N2" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
@@ -1741,6 +1870,12 @@
       <c r="N3" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="O3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
@@ -1782,12 +1917,18 @@
         <v>61</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1865,6 +2006,12 @@
       <c r="L13" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="O13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
@@ -2083,6 +2230,12 @@
       <c r="N34" s="16" t="s">
         <v>46</v>
       </c>
+      <c r="O34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" s="16" customFormat="true">
       <c r="B35" s="16" t="s">
@@ -2107,7 +2260,7 @@
         <v>63</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>74</v>
@@ -2120,6 +2273,12 @@
       </c>
       <c r="N35" s="16" t="s">
         <v>98</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" s="16" customFormat="true">
@@ -2158,6 +2317,12 @@
       </c>
       <c r="N36" s="16" t="s">
         <v>88</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2167,21 +2332,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2195,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2209,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2223,7 +2388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2237,7 +2402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/m2/UnityProject/Assets/Scene/9000_Test/sc2/doc/Main2Control.xlsx
+++ b/m2/UnityProject/Assets/Scene/9000_Test/sc2/doc/Main2Control.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="46" r:id="rId49"/>
-    <sheet name="help" sheetId="45" r:id="rId48"/>
-    <sheet name="setting.ini" sheetId="44" r:id="rId47"/>
-    <sheet name="template-statefunc" sheetId="43" r:id="rId46"/>
-    <sheet name="template-source" sheetId="42" r:id="rId45"/>
-    <sheet name="config" sheetId="41" r:id="rId44"/>
+    <sheet name="itemsinfo" sheetId="58" r:id="rId61"/>
+    <sheet name="help" sheetId="57" r:id="rId60"/>
+    <sheet name="setting.ini" sheetId="56" r:id="rId59"/>
+    <sheet name="template-statefunc" sheetId="55" r:id="rId58"/>
+    <sheet name="template-source" sheetId="54" r:id="rId57"/>
+    <sheet name="config" sheetId="53" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -1181,6 +1181,212 @@
 option_convert_with_confirm=0
 option_omit_basestate_string=0
 option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>S_START_SMOKE1</t>
+  </si>
+  <si>
+    <t>Debug.Log("STATE3 has not been implemented yet");</t>
+  </si>
+  <si>
+    <t>brifc(S_STOP_SMOKE2);
+brelseif(S_STOP_SMOKE1);</t>
+  </si>
+  <si>
+    <t>1532,855</t>
+  </si>
+  <si>
+    <t>1106,554</t>
+  </si>
+  <si>
+    <t>1525,591</t>
+  </si>
+  <si>
+    <t>煙開始</t>
+  </si>
+  <si>
+    <t>m_efsmoke2.Kick();</t>
+  </si>
+  <si>
+    <t>871,547</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>S_STOP_SMOKE1</t>
+  </si>
+  <si>
+    <t>S_STOP_SMOKE2</t>
+  </si>
+  <si>
+    <t>1319,848</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>m_efsmoke2.Stop();</t>
+  </si>
+  <si>
+    <t>1315,548</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/03/25 21:02:52
+; * pssgEditor version : 0.23.40293.f0b9fd4248d354ec440680d9161406ae26d4945e
+psggfile=@@@
+Main2Control.psgg
+@@@
+xlsfile=@@@
+Main2Control.xlsx
+@@@
+guid=@@@
+aa5a9627-5716-45d9-85b1-a9f2b452d288
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":0,"y":0}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":769,"y":99}},{"Key":"S_CAM_T1","Value":{"x":918,"y":195}},{"Key":"S_WAIT","Value":{"x":678,"y":192}},{"Key":"S_SETUP_STAGE3","Value":{"x":1532,"y":855}},{"Key":"S_SETUP_STAGE2","Value":{"x":657,"y":545}},{"Key":"S_SETUP_STAGE1","Value":{"x":259,"y":197}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":1106,"y":554}},{"Key":"S_LAUNCHSTART","Value":{"x":1189,"y":204}},{"Key":"S_DEBUG","Value":{"x":340,"y":549}},{"Key":"S_GAMEOVER","Value":{"x":1525,"y":591}},{"Key":"S_START_SMOKE","Value":{"x":467,"y":190}},{"Key":"S_STOP_SMOKE","Value":{"x":390,"y":378}},{"Key":"S_SETUP_STAGE4","Value":{"x":871,"y":547}},{"Key":"S_SETUP_STAGE5","Value":{"x":1319,"y":848}},{"Key":"S_START_SMOKE1","Value":{"x":871,"y":547}},{"Key":"S_START_SMOKE2","Value":{"x":1315,"y":548}},{"Key":"S_STOP_SMOKE2","Value":{"x":1315,"y":548}},{"Key":"S_STOP_SMOKE1","Value":{"x":1319,"y":848}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe" /Edit %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+option_hide_basestate_contents=1
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/03/25 21:03:18
+; * pssgEditor version : 0.23.40293.f0b9fd4248d354ec440680d9161406ae26d4945e
+psggfile=@@@
+Main2Control.psgg
+@@@
+xlsfile=@@@
+Main2Control.xlsx
+@@@
+guid=@@@
+aa5a9627-5716-45d9-85b1-a9f2b452d288
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":0,"y":0}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":769,"y":99}},{"Key":"S_CAM_T1","Value":{"x":918,"y":195}},{"Key":"S_WAIT","Value":{"x":678,"y":192}},{"Key":"S_SETUP_STAGE3","Value":{"x":1532,"y":855}},{"Key":"S_SETUP_STAGE2","Value":{"x":657,"y":545}},{"Key":"S_SETUP_STAGE1","Value":{"x":259,"y":197}},{"Key":"S_WAIT_TIMEOUT","Value":{"x":1106,"y":554}},{"Key":"S_LAUNCHSTART","Value":{"x":1189,"y":204}},{"Key":"S_DEBUG","Value":{"x":340,"y":549}},{"Key":"S_GAMEOVER","Value":{"x":1525,"y":591}},{"Key":"S_START_SMOKE","Value":{"x":467,"y":190}},{"Key":"S_STOP_SMOKE","Value":{"x":390,"y":378}},{"Key":"S_SETUP_STAGE4","Value":{"x":871,"y":547}},{"Key":"S_SETUP_STAGE5","Value":{"x":1319,"y":848}},{"Key":"S_START_SMOKE1","Value":{"x":871,"y":547}},{"Key":"S_START_SMOKE2","Value":{"x":1315,"y":548}},{"Key":"S_STOP_SMOKE2","Value":{"x":1315,"y":548}},{"Key":"S_STOP_SMOKE1","Value":{"x":1319,"y":848}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio\2017\Community\Common7\IDE\devenv.exe" /Edit %1
+@@@
+source_editor_vs2015_support=1
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+option_hide_basestate_contents=0
 option_hide_branchcmt_onbranchbox=0
 font_name=@@@
 MS UI Gothic
@@ -1742,7 +1948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1772,6 +1978,9 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1782,6 +1991,15 @@
         <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1832,6 +2050,15 @@
       <c r="P2" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
@@ -1876,6 +2103,9 @@
       <c r="P3" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
@@ -1896,6 +2126,9 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
+      <c r="R5" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A6" s="8"/>
@@ -1914,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>101</v>
@@ -1930,6 +2163,15 @@
       </c>
       <c r="P6" s="8" t="s">
         <v>59</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" s="11" customFormat="true">
@@ -1994,6 +2236,9 @@
       <c r="G13" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="H13" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="I13" s="10" t="s">
         <v>62</v>
       </c>
@@ -2011,6 +2256,12 @@
       </c>
       <c r="P13" s="10" t="s">
         <v>110</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="true">
@@ -2162,7 +2413,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="K29" s="12" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="true">
@@ -2236,6 +2487,15 @@
       <c r="P34" s="16" t="s">
         <v>46</v>
       </c>
+      <c r="Q34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="35" s="16" customFormat="true">
       <c r="B35" s="16" t="s">
@@ -2254,7 +2514,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>63</v>
@@ -2263,7 +2523,7 @@
         <v>103</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>79</v>
@@ -2272,13 +2532,22 @@
         <v>83</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>107</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>111</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="36" s="16" customFormat="true">
@@ -2323,6 +2592,15 @@
       </c>
       <c r="P36" s="16" t="s">
         <v>112</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2332,21 +2610,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2360,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2374,7 +2652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2388,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2402,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
